--- a/FL_SR/Table 1- HOF model results.xlsx
+++ b/FL_SR/Table 1- HOF model results.xlsx
@@ -2,12 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-14260" yWindow="480" windowWidth="21400" windowHeight="11460"/>
+    <workbookView xWindow="41240" yWindow="1000" windowWidth="23460" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1- HOF model results" sheetId="1" r:id="rId1"/>
+    <sheet name="Sup 1-Full list of model result" sheetId="2" r:id="rId2"/>
+    <sheet name="Species_extend_to_Canada" sheetId="3" r:id="rId3"/>
+    <sheet name="Species_meet_both_criteria" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="305">
   <si>
     <t xml:space="preserve">Type </t>
   </si>
@@ -27,43 +30,945 @@
     <t>Direction</t>
   </si>
   <si>
-    <t>Number of distinct species</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
     <t>Endemic</t>
   </si>
   <si>
-    <t>HOF type I</t>
-  </si>
-  <si>
-    <t>HOF type II</t>
-  </si>
-  <si>
     <t>South</t>
   </si>
   <si>
     <t>North</t>
   </si>
   <si>
-    <t>HOF type III</t>
-  </si>
-  <si>
-    <t>HOF type IV</t>
-  </si>
-  <si>
-    <t>HOF type V</t>
+    <t>I - Flat</t>
+  </si>
+  <si>
+    <t>II - Monotonic</t>
+  </si>
+  <si>
+    <t>III - Plateau</t>
+  </si>
+  <si>
+    <t>IV - Gaussian</t>
+  </si>
+  <si>
+    <t>V - Skewed</t>
+  </si>
+  <si>
+    <t>Number of species</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>In total, there are 113 species inventoried in Florida. Direction indicates whether HOF model maxima is south or north of latitudinal centre of range for species.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Table 1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> All Florida species described by their HOF model type or endemic status</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">beeftree/longleaf blolly (Guapira discolor); black-mangrove(Avicennia germins); white-mangrove (Laguncularia racemosa); American mangrove (Rhizophora mangle); West Indian mahogany (Swietenia mahagoni) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar elm (Ulmus crassifolia); blackjack oak (Quercus marilandica); pecan (Carya illinoinensis); camphortree (Cinmomum camphora); waterlocust (Gleditsia aquatica)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loblolly-bay (Gordonia lasianthus); green ash (Fraxinus pennsylvanica); redbay (Persea borbonia); eastern hophornbeam (Ostrya virginia); white mulberry (Morus alba)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">American sycamore (Platanus occidentalis); turkey oak (Quercus laevis)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">black oak (Quercus veluti); water-elm/planertree (Planera aquatica) </t>
+  </si>
+  <si>
+    <t>Atlantic white-cedar (Chamaecyparis thyoides); sourwood (Oxydendrum arboreum); blackgum (Nyssa sylvatica); pignut hickory (Carya glabra); sugarberry (Celtis laevigata)</t>
+  </si>
+  <si>
+    <t>loblolly pine (Pinus taeda); slash pine (Pinus elliottii); sand pine (Pinus clausa); sweetgum (Liquidambar styraciflua); swamp tupelo (Nyssa biflora)</t>
+  </si>
+  <si>
+    <t>red maple (Acer rubrum); yellow-poplar (Liriodendron tulipifera); longleaf pine (Pinus palustris); American beech (Fagus grandifolia); shortleaf pine (Pinus echita)</t>
+  </si>
+  <si>
+    <t>The most abundant 5 species in each category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cabbage palmetto (Sabal palmetto); pondcypress (Taxodium ascendens); water tupelo (Nyssa aquatica); coastal plain willow (Salix carolinia); live oak (Quercus virginia)  </t>
+  </si>
+  <si>
+    <t>spcd</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>hof_model_type</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>Allegheny chinkapin</t>
+  </si>
+  <si>
+    <t>Castanea</t>
+  </si>
+  <si>
+    <t>pumila</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>American basswood</t>
+  </si>
+  <si>
+    <t>Tilia</t>
+  </si>
+  <si>
+    <t>america</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>American beech</t>
+  </si>
+  <si>
+    <t>Fagus</t>
+  </si>
+  <si>
+    <t>grandifolia</t>
+  </si>
+  <si>
+    <t>American elm</t>
+  </si>
+  <si>
+    <t>Ulmus</t>
+  </si>
+  <si>
+    <t>American holly</t>
+  </si>
+  <si>
+    <t>Ilex</t>
+  </si>
+  <si>
+    <t>opaca</t>
+  </si>
+  <si>
+    <t>American hornbeam, musclewood</t>
+  </si>
+  <si>
+    <t>Carpinus</t>
+  </si>
+  <si>
+    <t>carolinia</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>American mangrove</t>
+  </si>
+  <si>
+    <t>Rhizophora</t>
+  </si>
+  <si>
+    <t>mangle</t>
+  </si>
+  <si>
+    <t>endemic species</t>
+  </si>
+  <si>
+    <t>American plum</t>
+  </si>
+  <si>
+    <t>Prunus</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>American sycamore</t>
+  </si>
+  <si>
+    <t>Platanus</t>
+  </si>
+  <si>
+    <t>occidentalis</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>Atlantic white-cedar</t>
+  </si>
+  <si>
+    <t>Chamaecyparis</t>
+  </si>
+  <si>
+    <t>thyoides</t>
+  </si>
+  <si>
+    <t>baldcypress</t>
+  </si>
+  <si>
+    <t>Taxodium</t>
+  </si>
+  <si>
+    <t>distichum</t>
+  </si>
+  <si>
+    <t>beeftree, longleaf blolly</t>
+  </si>
+  <si>
+    <t>Guapira</t>
+  </si>
+  <si>
+    <t>discolor</t>
+  </si>
+  <si>
+    <t>belah</t>
+  </si>
+  <si>
+    <t>Casuari</t>
+  </si>
+  <si>
+    <t>lepidophloia</t>
+  </si>
+  <si>
+    <t>bitternut hickory</t>
+  </si>
+  <si>
+    <t>Carya</t>
+  </si>
+  <si>
+    <t>cordiformis</t>
+  </si>
+  <si>
+    <t>black cherry</t>
+  </si>
+  <si>
+    <t>seroti</t>
+  </si>
+  <si>
+    <t>black oak</t>
+  </si>
+  <si>
+    <t>Quercus</t>
+  </si>
+  <si>
+    <t>veluti</t>
+  </si>
+  <si>
+    <t>black walnut</t>
+  </si>
+  <si>
+    <t>Juglans</t>
+  </si>
+  <si>
+    <t>nigra</t>
+  </si>
+  <si>
+    <t>black willow</t>
+  </si>
+  <si>
+    <t>Salix</t>
+  </si>
+  <si>
+    <t>black-mangrove</t>
+  </si>
+  <si>
+    <t>Avicennia</t>
+  </si>
+  <si>
+    <t>germins</t>
+  </si>
+  <si>
+    <t>blackgum</t>
+  </si>
+  <si>
+    <t>Nyssa</t>
+  </si>
+  <si>
+    <t>sylvatica</t>
+  </si>
+  <si>
+    <t>blackjack oak</t>
+  </si>
+  <si>
+    <t>marilandica</t>
+  </si>
+  <si>
+    <t>bluejack oak</t>
+  </si>
+  <si>
+    <t>inca</t>
+  </si>
+  <si>
+    <t>boxelder</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>negundo</t>
+  </si>
+  <si>
+    <t>buttonwood-mangrove</t>
+  </si>
+  <si>
+    <t>Conocarpus</t>
+  </si>
+  <si>
+    <t>erectus</t>
+  </si>
+  <si>
+    <t>cabbage palmetto</t>
+  </si>
+  <si>
+    <t>Sabal</t>
+  </si>
+  <si>
+    <t>palmetto</t>
+  </si>
+  <si>
+    <t>camphortree</t>
+  </si>
+  <si>
+    <t>Cinmomum</t>
+  </si>
+  <si>
+    <t>camphora</t>
+  </si>
+  <si>
+    <t>Caroli ash</t>
+  </si>
+  <si>
+    <t>Fraxinus</t>
+  </si>
+  <si>
+    <t>Caroli basswood</t>
+  </si>
+  <si>
+    <t>cedar elm</t>
+  </si>
+  <si>
+    <t>crassifolia</t>
+  </si>
+  <si>
+    <t>cherrybark oak</t>
+  </si>
+  <si>
+    <t>pagoda</t>
+  </si>
+  <si>
+    <t>chiberry</t>
+  </si>
+  <si>
+    <t>Melia</t>
+  </si>
+  <si>
+    <t>azedarach</t>
+  </si>
+  <si>
+    <t>Chinese tallowtree</t>
+  </si>
+  <si>
+    <t>Triadica</t>
+  </si>
+  <si>
+    <t>sebifera</t>
+  </si>
+  <si>
+    <t>chinkapin oak</t>
+  </si>
+  <si>
+    <t>muehlenbergii</t>
+  </si>
+  <si>
+    <t>coastal plain willow</t>
+  </si>
+  <si>
+    <t>cockspur hawthorn</t>
+  </si>
+  <si>
+    <t>Crataegus</t>
+  </si>
+  <si>
+    <t>crus-galli</t>
+  </si>
+  <si>
+    <t>common persimmon</t>
+  </si>
+  <si>
+    <t>Diospyros</t>
+  </si>
+  <si>
+    <t>virginia</t>
+  </si>
+  <si>
+    <t>cucumbertree</t>
+  </si>
+  <si>
+    <t>Magnolia</t>
+  </si>
+  <si>
+    <t>acumita</t>
+  </si>
+  <si>
+    <t>dwarf live oak</t>
+  </si>
+  <si>
+    <t>minima</t>
+  </si>
+  <si>
+    <t>dwarf post oak</t>
+  </si>
+  <si>
+    <t>margarettiae</t>
+  </si>
+  <si>
+    <t>eastern hophornbeam</t>
+  </si>
+  <si>
+    <t>Ostrya</t>
+  </si>
+  <si>
+    <t>eastern redbud</t>
+  </si>
+  <si>
+    <t>Cercis</t>
+  </si>
+  <si>
+    <t>cadensis</t>
+  </si>
+  <si>
+    <t>eastern redcedar</t>
+  </si>
+  <si>
+    <t>Juniperus</t>
+  </si>
+  <si>
+    <t>Florida maple</t>
+  </si>
+  <si>
+    <t>barbatum</t>
+  </si>
+  <si>
+    <t>Florida poisontree</t>
+  </si>
+  <si>
+    <t>Metopium</t>
+  </si>
+  <si>
+    <t>toxiferum</t>
+  </si>
+  <si>
+    <t>Florida strangler fig</t>
+  </si>
+  <si>
+    <t>Ficus</t>
+  </si>
+  <si>
+    <t>aurea</t>
+  </si>
+  <si>
+    <t>flowering dogwood</t>
+  </si>
+  <si>
+    <t>Cornus</t>
+  </si>
+  <si>
+    <t>florida</t>
+  </si>
+  <si>
+    <t>grand eucalyptus</t>
+  </si>
+  <si>
+    <t>Eucalyptus</t>
+  </si>
+  <si>
+    <t>grandis</t>
+  </si>
+  <si>
+    <t>green ash</t>
+  </si>
+  <si>
+    <t>pennsylvanica</t>
+  </si>
+  <si>
+    <t>gumbo limbo</t>
+  </si>
+  <si>
+    <t>Bursera</t>
+  </si>
+  <si>
+    <t>simaruba</t>
+  </si>
+  <si>
+    <t>hackberry</t>
+  </si>
+  <si>
+    <t>Celtis</t>
+  </si>
+  <si>
+    <t>honeylocust</t>
+  </si>
+  <si>
+    <t>Gleditsia</t>
+  </si>
+  <si>
+    <t>triacanthos</t>
+  </si>
+  <si>
+    <t>key thatch palm</t>
+  </si>
+  <si>
+    <t>Thrix</t>
+  </si>
+  <si>
+    <t>morrisii</t>
+  </si>
+  <si>
+    <t>laurel oak</t>
+  </si>
+  <si>
+    <t>laurifolia</t>
+  </si>
+  <si>
+    <t>live oak</t>
+  </si>
+  <si>
+    <t>loblolly pine</t>
+  </si>
+  <si>
+    <t>Pinus</t>
+  </si>
+  <si>
+    <t>taeda</t>
+  </si>
+  <si>
+    <t>loblolly-bay</t>
+  </si>
+  <si>
+    <t>Gordonia</t>
+  </si>
+  <si>
+    <t>lasianthus</t>
+  </si>
+  <si>
+    <t>longleaf pine</t>
+  </si>
+  <si>
+    <t>palustris</t>
+  </si>
+  <si>
+    <t>melaleuca</t>
+  </si>
+  <si>
+    <t>Melaleuca</t>
+  </si>
+  <si>
+    <t>quinquenervia</t>
+  </si>
+  <si>
+    <t>mimosa, silktree</t>
+  </si>
+  <si>
+    <t>Albizia</t>
+  </si>
+  <si>
+    <t>julibrissin</t>
+  </si>
+  <si>
+    <t>mockernut hickory</t>
+  </si>
+  <si>
+    <t>alba</t>
+  </si>
+  <si>
+    <t>Ogeechee tupelo</t>
+  </si>
+  <si>
+    <t>ogeche</t>
+  </si>
+  <si>
+    <t>overcup oak</t>
+  </si>
+  <si>
+    <t>lyrata</t>
+  </si>
+  <si>
+    <t>pawpaw</t>
+  </si>
+  <si>
+    <t>Asimina</t>
+  </si>
+  <si>
+    <t>triloba</t>
+  </si>
+  <si>
+    <t>pecan</t>
+  </si>
+  <si>
+    <t>illinoinensis</t>
+  </si>
+  <si>
+    <t>pignut hickory</t>
+  </si>
+  <si>
+    <t>glabra</t>
+  </si>
+  <si>
+    <t>pond pine</t>
+  </si>
+  <si>
+    <t>pond-apple</t>
+  </si>
+  <si>
+    <t>Annona</t>
+  </si>
+  <si>
+    <t>pondcypress</t>
+  </si>
+  <si>
+    <t>ascendens</t>
+  </si>
+  <si>
+    <t>post oak</t>
+  </si>
+  <si>
+    <t>stellata</t>
+  </si>
+  <si>
+    <t>pumpkin ash</t>
+  </si>
+  <si>
+    <t>profunda</t>
+  </si>
+  <si>
+    <t>red maple</t>
+  </si>
+  <si>
+    <t>rubrum</t>
+  </si>
+  <si>
+    <t>red mulberry</t>
+  </si>
+  <si>
+    <t>Morus</t>
+  </si>
+  <si>
+    <t>rubra</t>
+  </si>
+  <si>
+    <t>red stopper</t>
+  </si>
+  <si>
+    <t>Eugenia</t>
+  </si>
+  <si>
+    <t>rhombea</t>
+  </si>
+  <si>
+    <t>redbay</t>
+  </si>
+  <si>
+    <t>Persea</t>
+  </si>
+  <si>
+    <t>borbonia</t>
+  </si>
+  <si>
+    <t>river birch</t>
+  </si>
+  <si>
+    <t>Betula</t>
+  </si>
+  <si>
+    <t>sand hickory</t>
+  </si>
+  <si>
+    <t>pallida</t>
+  </si>
+  <si>
+    <t>sand pine</t>
+  </si>
+  <si>
+    <t>clausa</t>
+  </si>
+  <si>
+    <t>sassafras</t>
+  </si>
+  <si>
+    <t>Sassafras</t>
+  </si>
+  <si>
+    <t>albidum</t>
+  </si>
+  <si>
+    <t>scrub hickory</t>
+  </si>
+  <si>
+    <t>shortleaf pine</t>
+  </si>
+  <si>
+    <t>echita</t>
+  </si>
+  <si>
+    <t>Shumard oak</t>
+  </si>
+  <si>
+    <t>shumardii</t>
+  </si>
+  <si>
+    <t>slash pine</t>
+  </si>
+  <si>
+    <t>elliottii</t>
+  </si>
+  <si>
+    <t>slippery elm</t>
+  </si>
+  <si>
+    <t>sourwood</t>
+  </si>
+  <si>
+    <t>Oxydendrum</t>
+  </si>
+  <si>
+    <t>arboreum</t>
+  </si>
+  <si>
+    <t>southern crab apple</t>
+  </si>
+  <si>
+    <t>Malus</t>
+  </si>
+  <si>
+    <t>angustifolia</t>
+  </si>
+  <si>
+    <t>southern magnolia</t>
+  </si>
+  <si>
+    <t>grandiflora</t>
+  </si>
+  <si>
+    <t>southern red oak</t>
+  </si>
+  <si>
+    <t>falcata</t>
+  </si>
+  <si>
+    <t>southern redcedar</t>
+  </si>
+  <si>
+    <t>spruce pine</t>
+  </si>
+  <si>
+    <t>sugarberry</t>
+  </si>
+  <si>
+    <t>laevigata</t>
+  </si>
+  <si>
+    <t>swamp chestnut oak</t>
+  </si>
+  <si>
+    <t>michauxii</t>
+  </si>
+  <si>
+    <t>swamp cottonwood</t>
+  </si>
+  <si>
+    <t>Populus</t>
+  </si>
+  <si>
+    <t>heterophylla</t>
+  </si>
+  <si>
+    <t>swamp tupelo</t>
+  </si>
+  <si>
+    <t>biflora</t>
+  </si>
+  <si>
+    <t>sweetbay</t>
+  </si>
+  <si>
+    <t>sweetgum</t>
+  </si>
+  <si>
+    <t>Liquidambar</t>
+  </si>
+  <si>
+    <t>styraciflua</t>
+  </si>
+  <si>
+    <t>Texas red oak</t>
+  </si>
+  <si>
+    <t>texa</t>
+  </si>
+  <si>
+    <t>tietongue, pigeon-plum</t>
+  </si>
+  <si>
+    <t>Coccoloba</t>
+  </si>
+  <si>
+    <t>diversifolia</t>
+  </si>
+  <si>
+    <t>tungoil tree</t>
+  </si>
+  <si>
+    <t>Vernicia</t>
+  </si>
+  <si>
+    <t>fordii</t>
+  </si>
+  <si>
+    <t>turkey oak</t>
+  </si>
+  <si>
+    <t>laevis</t>
+  </si>
+  <si>
+    <t>water hickory</t>
+  </si>
+  <si>
+    <t>aquatica</t>
+  </si>
+  <si>
+    <t>water oak</t>
+  </si>
+  <si>
+    <t>water tupelo</t>
+  </si>
+  <si>
+    <t>water-elm, planertree</t>
+  </si>
+  <si>
+    <t>Planera</t>
+  </si>
+  <si>
+    <t>waterlocust</t>
+  </si>
+  <si>
+    <t>West Indian mahogany</t>
+  </si>
+  <si>
+    <t>Swietenia</t>
+  </si>
+  <si>
+    <t>mahagoni</t>
+  </si>
+  <si>
+    <t>white ash</t>
+  </si>
+  <si>
+    <t>white bully, willow bustic</t>
+  </si>
+  <si>
+    <t>Sideroxylon</t>
+  </si>
+  <si>
+    <t>salicifolium</t>
+  </si>
+  <si>
+    <t>white mulberry</t>
+  </si>
+  <si>
+    <t>white oak</t>
+  </si>
+  <si>
+    <t>white-mangrove</t>
+  </si>
+  <si>
+    <t>Laguncularia</t>
+  </si>
+  <si>
+    <t>racemosa</t>
+  </si>
+  <si>
+    <t>willow oak</t>
+  </si>
+  <si>
+    <t>phellos</t>
+  </si>
+  <si>
+    <t>winged elm</t>
+  </si>
+  <si>
+    <t>alata</t>
+  </si>
+  <si>
+    <t>yellow-poplar</t>
+  </si>
+  <si>
+    <t>Liriodendron</t>
+  </si>
+  <si>
+    <t>tulipifera</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>peak_location</t>
+  </si>
+  <si>
+    <t>Florida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -196,8 +1101,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,14 +1325,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -499,71 +1441,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -592,11 +1625,15 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -883,237 +1920,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="56" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="11" customHeight="1"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="77" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="11">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60">
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="11">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60">
+      <c r="A7" s="19"/>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="19"/>
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75">
+      <c r="A10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60">
+      <c r="A11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="C11" s="11">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60">
+      <c r="A12" s="19"/>
+      <c r="B12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2">
+      <c r="C12" s="11">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10">
+        <v>22</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
-        <f>SUM(E4:E5)</f>
-        <v>21</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/92</f>
-        <v>0.22826086956521738</v>
-      </c>
-      <c r="E4" s="6">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
-        <f>SUM(E6:E7)</f>
-        <v>4</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/92</f>
-        <v>4.3478260869565216E-2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3">
-        <f>C8/92</f>
-        <v>0.16304347826086957</v>
-      </c>
-      <c r="E8" s="6">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4">
-        <f>SUM(E9:E10)</f>
-        <v>43</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/92</f>
-        <v>0.46739130434782611</v>
-      </c>
-      <c r="E9" s="6">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3">
-        <f>E9/C9</f>
-        <v>0.41860465116279072</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3">
-        <f>E10/C9</f>
-        <v>0.58139534883720934</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="E12">
-        <f>SUM(E2:E10)</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="E14">
-        <f>SUM(E4+E6+E8+E9+E10)</f>
-        <v>73</v>
-      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="14" customHeight="1">
+      <c r="A14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C6:C7"/>
+  <mergeCells count="5">
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1121,4 +2141,2654 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12">
+        <v>422</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12">
+        <v>951</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12">
+        <v>531</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12">
+        <v>972</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12">
+        <v>591</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12">
+        <v>391</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12">
+        <v>989</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12">
+        <v>766</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12">
+        <v>731</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12">
+        <v>43</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12">
+        <v>221</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12">
+        <v>882</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12">
+        <v>857</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12">
+        <v>402</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12">
+        <v>762</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12">
+        <v>837</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12">
+        <v>602</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12">
+        <v>922</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12">
+        <v>986</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12">
+        <v>693</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12">
+        <v>824</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12">
+        <v>842</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12">
+        <v>313</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12">
+        <v>987</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12">
+        <v>912</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="12">
+        <v>858</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="12">
+        <v>548</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="12">
+        <v>953</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="12">
+        <v>973</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="12">
+        <v>813</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="12">
+        <v>993</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="12">
+        <v>994</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="12">
+        <v>826</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="12">
+        <v>925</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="12">
+        <v>501</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="12">
+        <v>521</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="12">
+        <v>651</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="12">
+        <v>841</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="12">
+        <v>840</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="12">
+        <v>701</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="12">
+        <v>471</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="12">
+        <v>68</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="12">
+        <v>311</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="12">
+        <v>886</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="12">
+        <v>876</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="12">
+        <v>491</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="12">
+        <v>513</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="12">
+        <v>544</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="12">
+        <v>854</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="12">
+        <v>462</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="12">
+        <v>552</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="12">
+        <v>913</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="12">
+        <v>820</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="12">
+        <v>838</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="12">
+        <v>131</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="12">
+        <v>555</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="12">
+        <v>121</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="12">
+        <v>992</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="12">
+        <v>345</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="12">
+        <v>409</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="12">
+        <v>692</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="12">
+        <v>822</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="12">
+        <v>367</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="12">
+        <v>404</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="12">
+        <v>403</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="12">
+        <v>128</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="12">
+        <v>853</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="12"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="12">
+        <v>222</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="12">
+        <v>835</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="12">
+        <v>545</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="12">
+        <v>316</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="12">
+        <v>682</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="12">
+        <v>873</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="12">
+        <v>721</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="12">
+        <v>373</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="12">
+        <v>410</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="12"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="12">
+        <v>107</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="12">
+        <v>931</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="12">
+        <v>411</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="12">
+        <v>110</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="12">
+        <v>834</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="12"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="12">
+        <v>111</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="12">
+        <v>975</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="12">
+        <v>711</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" s="12"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="12">
+        <v>662</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="12">
+        <v>652</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="12">
+        <v>812</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="12">
+        <v>67</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="12">
+        <v>115</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="12"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="12">
+        <v>461</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" s="12"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="12">
+        <v>825</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F92" s="12"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="12">
+        <v>744</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F93" s="12"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="12">
+        <v>694</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="12">
+        <v>653</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="12">
+        <v>611</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="12">
+        <v>828</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="12">
+        <v>863</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F98" s="12"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="12">
+        <v>995</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F99" s="12"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="12">
+        <v>819</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="12">
+        <v>401</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F101" s="12"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="12">
+        <v>827</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="12">
+        <v>691</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="12">
+        <v>722</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="12">
+        <v>551</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F105" s="12"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="12">
+        <v>940</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F106" s="12"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="12">
+        <v>541</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="12">
+        <v>891</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F108" s="12"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="12">
+        <v>681</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="12">
+        <v>802</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="12">
+        <v>988</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F111" s="12"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="12">
+        <v>831</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="12">
+        <v>971</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="12">
+        <v>621</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="12">
+        <v>951</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="12">
+        <v>531</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="12">
+        <v>972</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="12">
+        <v>402</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="12">
+        <v>762</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12">
+        <v>602</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="12">
+        <v>313</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12">
+        <v>462</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="12">
+        <v>316</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12">
+        <v>975</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12">
+        <v>541</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="12">
+        <v>621</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13">
+        <v>813</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="13">
+        <v>841</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13">
+        <v>820</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13">
+        <v>822</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13">
+        <v>107</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13">
+        <v>111</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13">
+        <v>694</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13">
+        <v>653</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13">
+        <v>828</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13">
+        <v>827</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13">
+        <v>831</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>